--- a/spliced/struggle/2023-03-25_18-16-21/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-21/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4101960062980652</v>
+        <v>0.4437935948371887</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9990701079368592</v>
+        <v>-0.864068865776062</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2145664244890213</v>
+        <v>-0.9851729273796082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6151412725448608</v>
+        <v>1.0256427526474</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0621555373072624</v>
+        <v>-4.58713960647583</v>
       </c>
       <c r="C3" t="n">
-        <v>1.660179018974304</v>
+        <v>0.0221438650041818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.11636982858181</v>
+        <v>2.594497442245483</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9434813857078552</v>
+        <v>0.8452847599983215</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0545197241008281</v>
+        <v>-2.786614418029785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2817615866661072</v>
+        <v>2.057699680328369</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2797762751579284</v>
+        <v>1.456302762031555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1502728462219238</v>
+        <v>-0.2620611786842346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1059851199388504</v>
+        <v>-0.5109887719154358</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6275113224983215</v>
+        <v>-1.112385630607605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.399200439453125</v>
+        <v>-1.43751859664917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5577199459075928</v>
+        <v>-0.303600013256073</v>
       </c>
       <c r="B7" t="n">
-        <v>2.784781932830811</v>
+        <v>2.510961532592773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6846272349357605</v>
+        <v>-0.3182607889175415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6629415154457092</v>
+        <v>-0.5890268087387085</v>
       </c>
       <c r="B8" t="n">
-        <v>3.707188367843628</v>
+        <v>-0.6258314251899719</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3274237811565399</v>
+        <v>0.7171558141708374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3837760984897613</v>
+        <v>1.278999090194702</v>
       </c>
       <c r="B9" t="n">
-        <v>1.931403160095215</v>
+        <v>0.4355469346046448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2281581759452819</v>
+        <v>0.9905179738998412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5522221922874451</v>
+        <v>-1.44057297706604</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8506298661231995</v>
+        <v>-0.845132052898407</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2730567753314972</v>
+        <v>-0.7629706859588623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4437935948371887</v>
+        <v>-1.023504734039307</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.864068865776062</v>
+        <v>-0.6563746929168701</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9851729273796082</v>
+        <v>0.645684540271759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0256427526474</v>
+        <v>-1.10917854309082</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.58713960647583</v>
+        <v>-0.5216789245605469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0221438650041818</v>
+        <v>0.8017606139183044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.594497442245483</v>
+        <v>-3.361896991729736</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8452847599983215</v>
+        <v>3.937331914901733</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.786614418029785</v>
+        <v>2.076178312301636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.057699680328369</v>
+        <v>2.992323398590088</v>
       </c>
       <c r="B14" t="n">
-        <v>1.456302762031555</v>
+        <v>0.9390525817871094</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2620611786842346</v>
+        <v>0.3888157308101654</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.5109887719154358</v>
+        <v>-0.3591887652873993</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.112385630607605</v>
+        <v>1.687973380088806</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.43751859664917</v>
+        <v>0.8848382830619812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.303600013256073</v>
+        <v>1.22615921497345</v>
       </c>
       <c r="B16" t="n">
-        <v>2.510961532592773</v>
+        <v>0.5057964324951172</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3182607889175415</v>
+        <v>0.3527746796607971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5890268087387085</v>
+        <v>-0.1565342247486114</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6258314251899719</v>
+        <v>-0.5474879741668701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7171558141708374</v>
+        <v>0.3535382747650146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.278999090194702</v>
+        <v>0.4882340431213379</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4355469346046448</v>
+        <v>-7.02800464630127</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9905179738998412</v>
+        <v>-4.413654327392578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.44057297706604</v>
+        <v>1.305877208709717</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.845132052898407</v>
+        <v>-2.09221339225769</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7629706859588623</v>
+        <v>-1.915520668029785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.023504734039307</v>
+        <v>1.73409366607666</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6563746929168701</v>
+        <v>-3.325092315673828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.645684540271759</v>
+        <v>-2.228436470031738</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.10917854309082</v>
+        <v>-2.827542543411255</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5216789245605469</v>
+        <v>-0.811687171459198</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8017606139183044</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-3.361896991729736</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.937331914901733</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.076178312301636</v>
+        <v>-1.57450520992279</v>
       </c>
     </row>
   </sheetData>
